--- a/dictionaries/decoding_dict.xlsx
+++ b/dictionaries/decoding_dict.xlsx
@@ -8,28 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AFEAB61-839B-41C4-97DC-2875E77685C3}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC278601-299B-4EF4-AB6D-7F5A67069A9F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="3495" windowWidth="21600" windowHeight="11385" tabRatio="902" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age" sheetId="1" r:id="rId1"/>
-    <sheet name="geo" sheetId="2" r:id="rId2"/>
+    <sheet name="geoOUT" sheetId="2" r:id="rId2"/>
     <sheet name="isced11" sheetId="3" r:id="rId3"/>
     <sheet name="sex" sheetId="5" r:id="rId4"/>
     <sheet name="indic_wb" sheetId="4" r:id="rId5"/>
+    <sheet name="subjnnom" sheetId="6" r:id="rId6"/>
+    <sheet name="incgrp" sheetId="7" r:id="rId7"/>
+    <sheet name="hhtyp" sheetId="8" r:id="rId8"/>
+    <sheet name="levels" sheetId="9" r:id="rId9"/>
+    <sheet name="duration" sheetId="10" r:id="rId10"/>
+    <sheet name="reason" sheetId="11" r:id="rId11"/>
+    <sheet name="n_lang" sheetId="12" r:id="rId12"/>
+    <sheet name="deg_urb" sheetId="13" r:id="rId13"/>
+    <sheet name="frequenc" sheetId="14" r:id="rId14"/>
+    <sheet name="quantile" sheetId="15" r:id="rId15"/>
+    <sheet name="unit" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="304">
   <si>
     <t>From 16 to 19 years</t>
   </si>
@@ -545,13 +567,409 @@
   </si>
   <si>
     <t>Y_LT60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code </t>
+  </si>
+  <si>
+    <t>Households making ends meet with great difficulty</t>
+  </si>
+  <si>
+    <t>Households making ends meet with difficulty</t>
+  </si>
+  <si>
+    <t>Households making ends meet with some difficulty</t>
+  </si>
+  <si>
+    <t>Households making ends meet fairly easily</t>
+  </si>
+  <si>
+    <t>Households making ends meet easily</t>
+  </si>
+  <si>
+    <t>Households making ends meet very easily</t>
+  </si>
+  <si>
+    <t>Single person</t>
+  </si>
+  <si>
+    <t>One adult younger than 65 years</t>
+  </si>
+  <si>
+    <t>One adult 65 years or over</t>
+  </si>
+  <si>
+    <t>Single person with dependent children</t>
+  </si>
+  <si>
+    <t>Single female</t>
+  </si>
+  <si>
+    <t>Single male</t>
+  </si>
+  <si>
+    <t>Two adults</t>
+  </si>
+  <si>
+    <t>Two adults younger than 65 years</t>
+  </si>
+  <si>
+    <t>Two adults, at least one aged 65 years or over</t>
+  </si>
+  <si>
+    <t>Two adults with one dependent child</t>
+  </si>
+  <si>
+    <t>Two adults with two dependent children</t>
+  </si>
+  <si>
+    <t>Two adults with three or more dependent children</t>
+  </si>
+  <si>
+    <t>Three or more adults</t>
+  </si>
+  <si>
+    <t>Three or more adults with dependent children</t>
+  </si>
+  <si>
+    <t>Households without dependent children</t>
+  </si>
+  <si>
+    <t>Households with dependent children</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Very good or good</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Very bad</t>
+  </si>
+  <si>
+    <t>Bad or very bad</t>
+  </si>
+  <si>
+    <t>Zero minutes</t>
+  </si>
+  <si>
+    <t>From 1 to 149 minutes</t>
+  </si>
+  <si>
+    <t>From 150 to 299 minutes</t>
+  </si>
+  <si>
+    <t>150 minutes or over</t>
+  </si>
+  <si>
+    <t>300 minutes or over</t>
+  </si>
+  <si>
+    <t>Too expensive</t>
+  </si>
+  <si>
+    <t>Too far to travel</t>
+  </si>
+  <si>
+    <t>Too expensive or too far to travel or waiting list</t>
+  </si>
+  <si>
+    <t>No time</t>
+  </si>
+  <si>
+    <t>No unmet needs to declare</t>
+  </si>
+  <si>
+    <t>Didn't know any good doctor or specialist</t>
+  </si>
+  <si>
+    <t>Waiting list</t>
+  </si>
+  <si>
+    <t>Fear of doctor, hospital, examination or treatment</t>
+  </si>
+  <si>
+    <t>Wanted to wait and see if problem got better on its own</t>
+  </si>
+  <si>
+    <t>Other reason</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Towns and suburbs</t>
+  </si>
+  <si>
+    <t>Rural areas</t>
+  </si>
+  <si>
+    <t>Every day</t>
+  </si>
+  <si>
+    <t>Every week</t>
+  </si>
+  <si>
+    <t>Once a month</t>
+  </si>
+  <si>
+    <t>Several times a month</t>
+  </si>
+  <si>
+    <t>Not in the last 12 months</t>
+  </si>
+  <si>
+    <t>At least once a year</t>
+  </si>
+  <si>
+    <t>At least once</t>
+  </si>
+  <si>
+    <t>First quintile</t>
+  </si>
+  <si>
+    <t>Second quintile</t>
+  </si>
+  <si>
+    <t>Third quintile</t>
+  </si>
+  <si>
+    <t>Fourth quintile</t>
+  </si>
+  <si>
+    <t>Fifth quintile</t>
+  </si>
+  <si>
+    <t>Rating (0-10)</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>RTG</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>EM_GD</t>
+  </si>
+  <si>
+    <t>EM_D</t>
+  </si>
+  <si>
+    <t>EM_SD</t>
+  </si>
+  <si>
+    <t>EM_FE</t>
+  </si>
+  <si>
+    <t>EM_E</t>
+  </si>
+  <si>
+    <t>EM_VE</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A1_LT65</t>
+  </si>
+  <si>
+    <t>A1_GE65</t>
+  </si>
+  <si>
+    <t>A1_DCH</t>
+  </si>
+  <si>
+    <t>A1F</t>
+  </si>
+  <si>
+    <t>A1M</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A2_2LT65</t>
+  </si>
+  <si>
+    <t>A2_GE1_GE65</t>
+  </si>
+  <si>
+    <t>A2_1DCH</t>
+  </si>
+  <si>
+    <t>A2_2DCH</t>
+  </si>
+  <si>
+    <t>A2_GE3DCH</t>
+  </si>
+  <si>
+    <t>A_GE3</t>
+  </si>
+  <si>
+    <t>A_GE3_DCH</t>
+  </si>
+  <si>
+    <t>HH_NDCH</t>
+  </si>
+  <si>
+    <t>HH_DCH</t>
+  </si>
+  <si>
+    <t>VGOOD</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>VG_G</t>
+  </si>
+  <si>
+    <t>FAIR</t>
+  </si>
+  <si>
+    <t>BAD</t>
+  </si>
+  <si>
+    <t>VBAD</t>
+  </si>
+  <si>
+    <t>B_VB</t>
+  </si>
+  <si>
+    <t>MN0</t>
+  </si>
+  <si>
+    <t>MN1-149</t>
+  </si>
+  <si>
+    <t>MN150-299</t>
+  </si>
+  <si>
+    <t>MN_GE150</t>
+  </si>
+  <si>
+    <t>MN_GE300</t>
+  </si>
+  <si>
+    <t>TOOEXP</t>
+  </si>
+  <si>
+    <t>TOOFAR</t>
+  </si>
+  <si>
+    <t>TOOEFW</t>
+  </si>
+  <si>
+    <t>NOTIME</t>
+  </si>
+  <si>
+    <t>NO_UNMET</t>
+  </si>
+  <si>
+    <t>NOKNOW</t>
+  </si>
+  <si>
+    <t>WAITING</t>
+  </si>
+  <si>
+    <t>FEAR</t>
+  </si>
+  <si>
+    <t>HOPING</t>
+  </si>
+  <si>
+    <t>OTH</t>
+  </si>
+  <si>
+    <t>DEG1</t>
+  </si>
+  <si>
+    <t>DEG2</t>
+  </si>
+  <si>
+    <t>DEG3</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>WEEK</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>SEV_M</t>
+  </si>
+  <si>
+    <t>NM12</t>
+  </si>
+  <si>
+    <t>GE1Y</t>
+  </si>
+  <si>
+    <t>GE1</t>
+  </si>
+  <si>
+    <t>QUINTILE1</t>
+  </si>
+  <si>
+    <t>QUINTILE2</t>
+  </si>
+  <si>
+    <t>QUINTILE3</t>
+  </si>
+  <si>
+    <t>QUINTILE4</t>
+  </si>
+  <si>
+    <t>QUINTILE5</t>
+  </si>
+  <si>
+    <t>Below 60% of median equivalised income</t>
+  </si>
+  <si>
+    <t>Above 60% of median equivalised income</t>
+  </si>
+  <si>
+    <t>B_MD60</t>
+  </si>
+  <si>
+    <t>A_MD60</t>
+  </si>
+  <si>
+    <t>No languages</t>
+  </si>
+  <si>
+    <t>1 language</t>
+  </si>
+  <si>
+    <t>2 languages</t>
+  </si>
+  <si>
+    <t>3 languages or more</t>
+  </si>
+  <si>
+    <t>GE3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +981,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -585,11 +1009,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1064,6 +1489,475 @@
       </c>
       <c r="B23" t="s">
         <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE6DBF1-A1B4-44D6-BBC0-D4D1C4111D71}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F793DD5D-4F91-4D00-BCCA-B72FB30153CF}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E88B695-9D98-40F0-B486-7A861EDA19D2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE99D80A-78BA-42A0-812A-7811D418ACF4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D557586-1D33-4387-B919-8569B3B1FD1B}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74062C70-4E32-48FB-8DF9-2DABDBC5DB0D}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2475D2-9F43-4B7D-8DB1-CFDF846B5F99}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1075,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47EF05D-786E-45AD-A8F3-796212A99DC9}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1458,9 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE34C92-0AC6-4ED0-83A1-8DD2E61A2B1D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1521,9 +2413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CC1D28-CE92-4738-BD74-9DD230FBA021}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1569,7 +2459,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1665,4 +2555,360 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CFD6A-64D7-4EEF-B53E-4932B50143D9}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912D449F-C34C-4A2A-A907-79A9D95E7ADC}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079090A0-1312-4556-AE2E-C4E9A55F8C7D}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DC70C2-F2D4-4551-B06D-312C97F6B3A3}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dictionaries/decoding_dict.xlsx
+++ b/dictionaries/decoding_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC278601-299B-4EF4-AB6D-7F5A67069A9F}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F2DE76-8DFA-406C-8DA1-8F55608BA22A}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="3495" windowWidth="21600" windowHeight="11385" tabRatio="902" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="902" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="frequenc" sheetId="14" r:id="rId14"/>
     <sheet name="quantile" sheetId="15" r:id="rId15"/>
     <sheet name="unit" sheetId="16" r:id="rId16"/>
+    <sheet name="victim" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="314">
   <si>
     <t>From 16 to 19 years</t>
   </si>
@@ -963,6 +964,36 @@
   </si>
   <si>
     <t>GE3</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Inhabitants per ...</t>
+  </si>
+  <si>
+    <t>Per hundred thousand inhabitants</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>HAB_P</t>
+  </si>
+  <si>
+    <t>P_HTHAB</t>
+  </si>
+  <si>
+    <t>KIL</t>
+  </si>
+  <si>
+    <t>INJ</t>
+  </si>
+  <si>
+    <t>Killed</t>
+  </si>
+  <si>
+    <t>Injured</t>
   </si>
 </sst>
 </file>
@@ -1928,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2475D2-9F43-4B7D-8DB1-CFDF846B5F99}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1959,6 +1990,72 @@
       <c r="B3" t="s">
         <v>233</v>
       </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E51C5-7966-48C6-8505-9205E569550C}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1969,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47EF05D-786E-45AD-A8F3-796212A99DC9}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/dictionaries/decoding_dict.xlsx
+++ b/dictionaries/decoding_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F2DE76-8DFA-406C-8DA1-8F55608BA22A}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A957372-74D2-411B-8C8C-5A294055DEA2}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="902" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="902" firstSheet="1" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="quantile" sheetId="15" r:id="rId15"/>
     <sheet name="unit" sheetId="16" r:id="rId16"/>
     <sheet name="victim" sheetId="17" r:id="rId17"/>
+    <sheet name="indic_ur" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="490">
   <si>
     <t>From 16 to 19 years</t>
   </si>
@@ -994,13 +995,541 @@
   </si>
   <si>
     <t>Injured</t>
+  </si>
+  <si>
+    <t>CR1003I</t>
+  </si>
+  <si>
+    <t>Number of cinema seats per 1000 residents</t>
+  </si>
+  <si>
+    <t>CR2010I</t>
+  </si>
+  <si>
+    <t>Number of available beds per 1000 residents</t>
+  </si>
+  <si>
+    <t>CR2011I</t>
+  </si>
+  <si>
+    <t>Number of Tourist overnight stays in reg. accommodation per year per resident population</t>
+  </si>
+  <si>
+    <t>DE1003I</t>
+  </si>
+  <si>
+    <t>Women per 100 men</t>
+  </si>
+  <si>
+    <t>DE1025I</t>
+  </si>
+  <si>
+    <t>Proportion of total population aged 55-64</t>
+  </si>
+  <si>
+    <t>DE1028I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of population aged 65-74 years </t>
+  </si>
+  <si>
+    <t>DE1040I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of population aged 0-4 years </t>
+  </si>
+  <si>
+    <t>DE1046I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of population aged 15-19 years </t>
+  </si>
+  <si>
+    <t>DE1049I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of population aged 20-24 years </t>
+  </si>
+  <si>
+    <t>DE1055I</t>
+  </si>
+  <si>
+    <t>Proportion of population aged 75 years  and over</t>
+  </si>
+  <si>
+    <t>DE1057I</t>
+  </si>
+  <si>
+    <t>Women per 100 men - aged 75 years  and over</t>
+  </si>
+  <si>
+    <t>DE1058I</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (population aged 0-19 and 65 and more to population aged 20-64)</t>
+  </si>
+  <si>
+    <t>DE1059I</t>
+  </si>
+  <si>
+    <t>Young-age dependency ratio (population aged 0-19 to population 20-64 years)</t>
+  </si>
+  <si>
+    <t>DE1060I</t>
+  </si>
+  <si>
+    <t>Old age dependency ratio (population 65 and over to population 20 to 64 years)</t>
+  </si>
+  <si>
+    <t>DE1061I</t>
+  </si>
+  <si>
+    <t>Population change over 1 year</t>
+  </si>
+  <si>
+    <t>DE1064I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of population aged 45-54 years </t>
+  </si>
+  <si>
+    <t>DE1073I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of population aged 25-34 years </t>
+  </si>
+  <si>
+    <t>DE1076I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of population aged 35-44 years </t>
+  </si>
+  <si>
+    <t>DE1084I</t>
+  </si>
+  <si>
+    <t>Proportion of population aged 5-9 years</t>
+  </si>
+  <si>
+    <t>DE1085I</t>
+  </si>
+  <si>
+    <t>Proportion of population aged 10-14 years</t>
+  </si>
+  <si>
+    <t>DE2001I</t>
+  </si>
+  <si>
+    <t>Nationals as a proportion of population</t>
+  </si>
+  <si>
+    <t>DE2002I</t>
+  </si>
+  <si>
+    <t>EU foreigners as a proportion of population</t>
+  </si>
+  <si>
+    <t>DE2003I</t>
+  </si>
+  <si>
+    <t>Non-EU foreigners as a proportion of population</t>
+  </si>
+  <si>
+    <t>DE2007I</t>
+  </si>
+  <si>
+    <t>Foreigners as a proportion of population</t>
+  </si>
+  <si>
+    <t>DE2008I</t>
+  </si>
+  <si>
+    <t>Native-born as a proportion of population</t>
+  </si>
+  <si>
+    <t>DE2009I</t>
+  </si>
+  <si>
+    <t>Foreign-born as a proportion of population</t>
+  </si>
+  <si>
+    <t>DE3002I</t>
+  </si>
+  <si>
+    <t>Proportion of households that are 1-person households</t>
+  </si>
+  <si>
+    <t>DE3004I</t>
+  </si>
+  <si>
+    <t>Average size of households</t>
+  </si>
+  <si>
+    <t>DE3005I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prop. of households that are lone-parent households </t>
+  </si>
+  <si>
+    <t>DE3008I</t>
+  </si>
+  <si>
+    <t>Prop. households that are lone-pensioner households</t>
+  </si>
+  <si>
+    <t>DE3011I</t>
+  </si>
+  <si>
+    <t>Proportion of households with children aged 0-17</t>
+  </si>
+  <si>
+    <t>DE3016I</t>
+  </si>
+  <si>
+    <t>Lone parent households per 100 households with children aged 0-17</t>
+  </si>
+  <si>
+    <t>EC1001I</t>
+  </si>
+  <si>
+    <t>Activity rate</t>
+  </si>
+  <si>
+    <t>EC1002I</t>
+  </si>
+  <si>
+    <t>Activity rate, male</t>
+  </si>
+  <si>
+    <t>EC1003I</t>
+  </si>
+  <si>
+    <t>Activity rate, female</t>
+  </si>
+  <si>
+    <t>EC1011I</t>
+  </si>
+  <si>
+    <t>Unemployment rate, male</t>
+  </si>
+  <si>
+    <t>EC1012I</t>
+  </si>
+  <si>
+    <t>Unemployment rate, female</t>
+  </si>
+  <si>
+    <t>EC1020I</t>
+  </si>
+  <si>
+    <t>Unemployment rate</t>
+  </si>
+  <si>
+    <t>EC2008I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of employment in agriculture fishery </t>
+  </si>
+  <si>
+    <t>EC2009I</t>
+  </si>
+  <si>
+    <t>Prop. of employment in industries (NACE Rev.1.1 C-E)</t>
+  </si>
+  <si>
+    <t>EC2022I</t>
+  </si>
+  <si>
+    <t>Proportion of employment in construction (NACE Rev.1.1 F)</t>
+  </si>
+  <si>
+    <t>EN2029I</t>
+  </si>
+  <si>
+    <t>Prop. of residents exposed to air traffic noise &gt;55 dB(A) at night time</t>
+  </si>
+  <si>
+    <t>EN2032I</t>
+  </si>
+  <si>
+    <t>Prop. of residents exposed to rail traffic noise &gt;65 dB(A) at day time</t>
+  </si>
+  <si>
+    <t>EN2033I</t>
+  </si>
+  <si>
+    <t>Prop. of residents exposed to road traffic noise &gt;65 dB(A) at day time</t>
+  </si>
+  <si>
+    <t>EN2035I</t>
+  </si>
+  <si>
+    <t>Prop. of residents exposed to road traffic noise &gt;55 dB(A) at night time</t>
+  </si>
+  <si>
+    <t>EN2036I</t>
+  </si>
+  <si>
+    <t>Prop. of residents exposed to rail traffic noise &gt;55 dB(A) at night time</t>
+  </si>
+  <si>
+    <t>SA1007I</t>
+  </si>
+  <si>
+    <t>Proportion of households living in houses</t>
+  </si>
+  <si>
+    <t>SA1008I</t>
+  </si>
+  <si>
+    <t>Proportion of households living in apartments</t>
+  </si>
+  <si>
+    <t>SA1011I</t>
+  </si>
+  <si>
+    <t>Proportion of households living in owned dwellings</t>
+  </si>
+  <si>
+    <t>SA2004I</t>
+  </si>
+  <si>
+    <t>Infant mortality rate (per 1000 live births)</t>
+  </si>
+  <si>
+    <t>SA2007I</t>
+  </si>
+  <si>
+    <t>Crude birth rate (per 1000 inhabitants)</t>
+  </si>
+  <si>
+    <t>SA2029I</t>
+  </si>
+  <si>
+    <t>Crude death rate (per 1000 inhabitants)</t>
+  </si>
+  <si>
+    <t>TE1001I</t>
+  </si>
+  <si>
+    <t>Number of Children 0-4 in day care (publ.&amp;priv) per 1000 children 0-4</t>
+  </si>
+  <si>
+    <t>TE1026I</t>
+  </si>
+  <si>
+    <t>Share of students in higher education in the total population (per 1000 persons)</t>
+  </si>
+  <si>
+    <t>TE2028I</t>
+  </si>
+  <si>
+    <t>Prop. of working age population qualified at level 3 or 4 ISCED</t>
+  </si>
+  <si>
+    <t>TE2031I</t>
+  </si>
+  <si>
+    <t>Prop. of working age population qualified at level 5 or 6 ISCED</t>
+  </si>
+  <si>
+    <t>TT1057I</t>
+  </si>
+  <si>
+    <t>Number of registered cars per 1000 population</t>
+  </si>
+  <si>
+    <t>TT1060I</t>
+  </si>
+  <si>
+    <t>People killed in road accidents per 10000 pop.</t>
+  </si>
+  <si>
+    <t>Private households (excluding institutional households)</t>
+  </si>
+  <si>
+    <t>Population living in private households (excluding institutional households)</t>
+  </si>
+  <si>
+    <t>One person households</t>
+  </si>
+  <si>
+    <t>Lone parent private households (with children aged 0 to under 18)</t>
+  </si>
+  <si>
+    <t>Lone pensioner (above retirement age) households</t>
+  </si>
+  <si>
+    <t>Households with children aged 0 to under 18</t>
+  </si>
+  <si>
+    <t>Number of conventional dwellings</t>
+  </si>
+  <si>
+    <t>Number of houses</t>
+  </si>
+  <si>
+    <t>Number of apartments</t>
+  </si>
+  <si>
+    <t>Number of households living in houses</t>
+  </si>
+  <si>
+    <t>Number of households living in apartments</t>
+  </si>
+  <si>
+    <t>Households owning their own dwelling</t>
+  </si>
+  <si>
+    <t>Households in social housing</t>
+  </si>
+  <si>
+    <t>Households in private rented housing</t>
+  </si>
+  <si>
+    <t>Number of people in accommodation for the homeless</t>
+  </si>
+  <si>
+    <t>Average price for buying a house - EUR</t>
+  </si>
+  <si>
+    <t>Average price for buying an apartment - EUR</t>
+  </si>
+  <si>
+    <t>Average annual rent for housing per m² - EUR</t>
+  </si>
+  <si>
+    <t>Dwellings lacking basic amenities</t>
+  </si>
+  <si>
+    <t>Empty conventional dwellings</t>
+  </si>
+  <si>
+    <t>Average area of living accommodation - m²/person</t>
+  </si>
+  <si>
+    <t>Number of murders and violent deaths</t>
+  </si>
+  <si>
+    <t>Median disposable annual household income - EUR</t>
+  </si>
+  <si>
+    <t>Average disposable annual household income - EUR</t>
+  </si>
+  <si>
+    <t>Share of persons living in households with very low work intensity - %</t>
+  </si>
+  <si>
+    <t>Share of persons at risk of poverty after social transfers -%</t>
+  </si>
+  <si>
+    <t>Share of severely materially deprived persons -%</t>
+  </si>
+  <si>
+    <t>Share of persons at risk of poverty or social exclusion -%</t>
+  </si>
+  <si>
+    <t>Average price for buying a house per m2 - EUR</t>
+  </si>
+  <si>
+    <t>Average price for buying an apartment per m2 - EUR</t>
+  </si>
+  <si>
+    <t>DE3001V</t>
+  </si>
+  <si>
+    <t>DE3017V</t>
+  </si>
+  <si>
+    <t>DE3002V</t>
+  </si>
+  <si>
+    <t>DE3005V</t>
+  </si>
+  <si>
+    <t>DE3008V</t>
+  </si>
+  <si>
+    <t>DE3011V</t>
+  </si>
+  <si>
+    <t>SA1001V</t>
+  </si>
+  <si>
+    <t>SA1004V</t>
+  </si>
+  <si>
+    <t>SA1005V</t>
+  </si>
+  <si>
+    <t>SA1007V</t>
+  </si>
+  <si>
+    <t>SA1008V</t>
+  </si>
+  <si>
+    <t>SA1011V</t>
+  </si>
+  <si>
+    <t>SA1012V</t>
+  </si>
+  <si>
+    <t>SA1013V</t>
+  </si>
+  <si>
+    <t>SA1029V</t>
+  </si>
+  <si>
+    <t>SA1050V</t>
+  </si>
+  <si>
+    <t>SA1051V</t>
+  </si>
+  <si>
+    <t>SA1049V</t>
+  </si>
+  <si>
+    <t>SA1018V</t>
+  </si>
+  <si>
+    <t>SA1025V</t>
+  </si>
+  <si>
+    <t>SA1022V</t>
+  </si>
+  <si>
+    <t>SA3005V</t>
+  </si>
+  <si>
+    <t>EC3039V</t>
+  </si>
+  <si>
+    <t>EC3040V</t>
+  </si>
+  <si>
+    <t>EC3064V</t>
+  </si>
+  <si>
+    <t>EC3065V</t>
+  </si>
+  <si>
+    <t>EC3066V</t>
+  </si>
+  <si>
+    <t>EC3067V</t>
+  </si>
+  <si>
+    <t>SA1052V</t>
+  </si>
+  <si>
+    <t>SA1053V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,13 +1548,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1037,18 +1619,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Neutral 2" xfId="3" xr:uid="{1E95794C-0A36-4970-81AA-18E2590E723F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{866F3B10-B9E9-4262-AEB0-162FF834E326}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8DB4657F-9C91-47FA-A7E9-5A44D08C9946}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2024,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E51C5-7966-48C6-8505-9205E569550C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2058,6 +2654,736 @@
       <c r="A4" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AD7E38-0FD5-445E-A154-AE66FC0F0BA5}">
+  <dimension ref="A1:B89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B30" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B37" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B39" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B50" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B53" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B62" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B63" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B64" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B68" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B69" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B70" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B71" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B72" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B73" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B74" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B75" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B76" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B77" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B78" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B79" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B83" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B90">
+    <sortCondition ref="A1:A90"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/dictionaries/decoding_dict.xlsx
+++ b/dictionaries/decoding_dict.xlsx
@@ -1,36 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choij\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A957372-74D2-411B-8C8C-5A294055DEA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED0AEC7-21D3-4FBB-91B0-A699A1DD44D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="902" firstSheet="1" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="902" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age" sheetId="1" r:id="rId1"/>
-    <sheet name="geoOUT" sheetId="2" r:id="rId2"/>
-    <sheet name="isced11" sheetId="3" r:id="rId3"/>
-    <sheet name="sex" sheetId="5" r:id="rId4"/>
-    <sheet name="indic_wb" sheetId="4" r:id="rId5"/>
-    <sheet name="subjnnom" sheetId="6" r:id="rId6"/>
-    <sheet name="incgrp" sheetId="7" r:id="rId7"/>
-    <sheet name="hhtyp" sheetId="8" r:id="rId8"/>
-    <sheet name="levels" sheetId="9" r:id="rId9"/>
-    <sheet name="duration" sheetId="10" r:id="rId10"/>
-    <sheet name="reason" sheetId="11" r:id="rId11"/>
-    <sheet name="n_lang" sheetId="12" r:id="rId12"/>
-    <sheet name="deg_urb" sheetId="13" r:id="rId13"/>
-    <sheet name="frequenc" sheetId="14" r:id="rId14"/>
-    <sheet name="quantile" sheetId="15" r:id="rId15"/>
-    <sheet name="unit" sheetId="16" r:id="rId16"/>
-    <sheet name="victim" sheetId="17" r:id="rId17"/>
-    <sheet name="indic_ur" sheetId="18" r:id="rId18"/>
+    <sheet name="wstatus" sheetId="20" r:id="rId2"/>
+    <sheet name="geoOUT" sheetId="2" r:id="rId3"/>
+    <sheet name="isced11" sheetId="3" r:id="rId4"/>
+    <sheet name="sex" sheetId="5" r:id="rId5"/>
+    <sheet name="indic_wb" sheetId="4" r:id="rId6"/>
+    <sheet name="subjnnom" sheetId="6" r:id="rId7"/>
+    <sheet name="incgrp" sheetId="7" r:id="rId8"/>
+    <sheet name="iccs" sheetId="19" r:id="rId9"/>
+    <sheet name="hhtyp" sheetId="8" r:id="rId10"/>
+    <sheet name="levels" sheetId="9" r:id="rId11"/>
+    <sheet name="duration" sheetId="10" r:id="rId12"/>
+    <sheet name="reason" sheetId="11" r:id="rId13"/>
+    <sheet name="n_lang" sheetId="12" r:id="rId14"/>
+    <sheet name="deg_urb" sheetId="13" r:id="rId15"/>
+    <sheet name="trans1y" sheetId="21" r:id="rId16"/>
+    <sheet name="frequenc" sheetId="14" r:id="rId17"/>
+    <sheet name="quantile" sheetId="15" r:id="rId18"/>
+    <sheet name="unit" sheetId="16" r:id="rId19"/>
+    <sheet name="victim" sheetId="17" r:id="rId20"/>
+    <sheet name="indic_ur" sheetId="18" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="624">
   <si>
     <t>From 16 to 19 years</t>
   </si>
@@ -1523,13 +1526,415 @@
   </si>
   <si>
     <t>SA1053V</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ICCS0101</t>
+  </si>
+  <si>
+    <t>Intentional homicide</t>
+  </si>
+  <si>
+    <t>ICCS0102</t>
+  </si>
+  <si>
+    <t>Attempted intentional homicide</t>
+  </si>
+  <si>
+    <t>ICCS020111</t>
+  </si>
+  <si>
+    <t>Serious assault</t>
+  </si>
+  <si>
+    <t>ICCS020221</t>
+  </si>
+  <si>
+    <t>Kidnapping</t>
+  </si>
+  <si>
+    <t>ICCS0301</t>
+  </si>
+  <si>
+    <t>Sexual violence</t>
+  </si>
+  <si>
+    <t>ICCS03011</t>
+  </si>
+  <si>
+    <t>Rape</t>
+  </si>
+  <si>
+    <t>ICCS03012</t>
+  </si>
+  <si>
+    <t>Sexual assault</t>
+  </si>
+  <si>
+    <t>ICCS0302</t>
+  </si>
+  <si>
+    <t>Sexual exploitation</t>
+  </si>
+  <si>
+    <t>ICCS0401</t>
+  </si>
+  <si>
+    <t>Robbery</t>
+  </si>
+  <si>
+    <t>ICCS0501</t>
+  </si>
+  <si>
+    <t>Burglary</t>
+  </si>
+  <si>
+    <t>ICCS05012</t>
+  </si>
+  <si>
+    <t>Burglary of private residential premises</t>
+  </si>
+  <si>
+    <t>ICCS0502</t>
+  </si>
+  <si>
+    <t>Theft</t>
+  </si>
+  <si>
+    <t>ICCS05021</t>
+  </si>
+  <si>
+    <t>Theft of a motorized vehicle or parts thereof</t>
+  </si>
+  <si>
+    <t>ICCS0601</t>
+  </si>
+  <si>
+    <t>Unlawful acts involving controlled drugs or precursors</t>
+  </si>
+  <si>
+    <t>ICCS0701</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>ICCS0703</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>ICCS07031</t>
+  </si>
+  <si>
+    <t>Bribery</t>
+  </si>
+  <si>
+    <t>ICCS07041</t>
+  </si>
+  <si>
+    <t>Money laundering</t>
+  </si>
+  <si>
+    <t>ICCS0903</t>
+  </si>
+  <si>
+    <t>Acts against computer systems</t>
+  </si>
+  <si>
+    <t>ICCS09051</t>
+  </si>
+  <si>
+    <t>Participation in an organized criminal group</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>Employed persons</t>
+  </si>
+  <si>
+    <t>EMP_FT</t>
+  </si>
+  <si>
+    <t>Employed persons working full-time</t>
+  </si>
+  <si>
+    <t>EMP_PT</t>
+  </si>
+  <si>
+    <t>Employed persons working part-time</t>
+  </si>
+  <si>
+    <t>UNE</t>
+  </si>
+  <si>
+    <t>Unemployed persons</t>
+  </si>
+  <si>
+    <t>INAC</t>
+  </si>
+  <si>
+    <t>Persons outside the labour force (former name: inactive persons)</t>
+  </si>
+  <si>
+    <t>TO_FT</t>
+  </si>
+  <si>
+    <t>Transition to full-time work</t>
+  </si>
+  <si>
+    <t>TO_PT</t>
+  </si>
+  <si>
+    <t>Transition to part-time work</t>
+  </si>
+  <si>
+    <t>TO_EMP</t>
+  </si>
+  <si>
+    <t>Transition to employed person</t>
+  </si>
+  <si>
+    <t>TO_UNE</t>
+  </si>
+  <si>
+    <t>Transition to unemployment</t>
+  </si>
+  <si>
+    <t>TO_INAC</t>
+  </si>
+  <si>
+    <t>Transition to inactivity</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>NEMP</t>
+  </si>
+  <si>
+    <t>Not employed persons</t>
+  </si>
+  <si>
+    <t>WANT</t>
+  </si>
+  <si>
+    <t>Persons would like to work (seeking employment or not)</t>
+  </si>
+  <si>
+    <t>NWANT</t>
+  </si>
+  <si>
+    <t>Persons do not want to work</t>
+  </si>
+  <si>
+    <t>Y15-64</t>
+  </si>
+  <si>
+    <t>From 15 to 64 years</t>
+  </si>
+  <si>
+    <t>Y25-64</t>
+  </si>
+  <si>
+    <t>From 25 to 64 years</t>
+  </si>
+  <si>
+    <t>Y30-34</t>
+  </si>
+  <si>
+    <t>From 30 to 34 years</t>
+  </si>
+  <si>
+    <t>Y45-64</t>
+  </si>
+  <si>
+    <t>From 45 to 64 years</t>
+  </si>
+  <si>
+    <t>Y55-64</t>
+  </si>
+  <si>
+    <t>From 55 to 64 years</t>
+  </si>
+  <si>
+    <t>ED3-8</t>
+  </si>
+  <si>
+    <t>Upper secondary, post-secondary non-tertiary and tertiary education (levels 3-8)</t>
+  </si>
+  <si>
+    <t>ED3_4GEN</t>
+  </si>
+  <si>
+    <t>Upper secondary and post-secondary non-tertiary education (levels 3 and 4) - general</t>
+  </si>
+  <si>
+    <t>ED3_4VOC</t>
+  </si>
+  <si>
+    <t>Upper secondary and post-secondary non-tertiary education (levels 3 and 4) - vocational</t>
+  </si>
+  <si>
+    <t>Y16-44</t>
+  </si>
+  <si>
+    <t>From 16 to 44 years</t>
+  </si>
+  <si>
+    <t>Y16-64</t>
+  </si>
+  <si>
+    <t>From 16 to 64 years</t>
+  </si>
+  <si>
+    <t>Y_GE16</t>
+  </si>
+  <si>
+    <t>16 years or over</t>
+  </si>
+  <si>
+    <t>Y18-44</t>
+  </si>
+  <si>
+    <t>From 18 to 44 years</t>
+  </si>
+  <si>
+    <t>Y45-49</t>
+  </si>
+  <si>
+    <t>From 45 to 49 years</t>
+  </si>
+  <si>
+    <t>Y65-74</t>
+  </si>
+  <si>
+    <t>From 65 to 74 years</t>
+  </si>
+  <si>
+    <t>Y_GE65</t>
+  </si>
+  <si>
+    <t>65 years or over</t>
+  </si>
+  <si>
+    <t>Y75-84</t>
+  </si>
+  <si>
+    <t>From 75 to 84 years</t>
+  </si>
+  <si>
+    <t>Y_GE75</t>
+  </si>
+  <si>
+    <t>75 years or over</t>
+  </si>
+  <si>
+    <t>Y_GE85</t>
+  </si>
+  <si>
+    <t>85 years or over</t>
+  </si>
+  <si>
+    <t>THS</t>
+  </si>
+  <si>
+    <t>Thousand</t>
+  </si>
+  <si>
+    <t>THS_PER</t>
+  </si>
+  <si>
+    <t>Thousand persons</t>
+  </si>
+  <si>
+    <t>PC_Y_LT60</t>
+  </si>
+  <si>
+    <t>Percentage of total population aged less than 60</t>
+  </si>
+  <si>
+    <t>Y15-44</t>
+  </si>
+  <si>
+    <t>From 15 to 44 years</t>
+  </si>
+  <si>
+    <t>Y18-29</t>
+  </si>
+  <si>
+    <t>From 18 to 29 years</t>
+  </si>
+  <si>
+    <t>Y18-64</t>
+  </si>
+  <si>
+    <t>From 18 to 64 years</t>
+  </si>
+  <si>
+    <t>Y_GE18</t>
+  </si>
+  <si>
+    <t>18 years or over</t>
+  </si>
+  <si>
+    <t>Y18-69</t>
+  </si>
+  <si>
+    <t>From 18 to 69 years</t>
+  </si>
+  <si>
+    <t>Y18-74</t>
+  </si>
+  <si>
+    <t>From 18 to 74 years</t>
+  </si>
+  <si>
+    <t>Y20-34</t>
+  </si>
+  <si>
+    <t>From 20 to 34 years</t>
+  </si>
+  <si>
+    <t>Y25-69</t>
+  </si>
+  <si>
+    <t>From 25 to 69 years</t>
+  </si>
+  <si>
+    <t>Y25-74</t>
+  </si>
+  <si>
+    <t>From 25 to 74 years</t>
+  </si>
+  <si>
+    <t>Y55-74</t>
+  </si>
+  <si>
+    <t>From 55 to 74 years</t>
+  </si>
+  <si>
+    <t>NRP</t>
+  </si>
+  <si>
+    <t>No response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1571,6 +1976,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1625,7 +2040,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1639,6 +2054,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Neutral 2" xfId="3" xr:uid="{1E95794C-0A36-4970-81AA-18E2590E723F}"/>
@@ -1657,10 +2078,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1926,13 +2343,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2062,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -2070,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -2078,7 +2495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>167</v>
       </c>
@@ -2086,7 +2503,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>168</v>
       </c>
@@ -2094,7 +2511,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>169</v>
       </c>
@@ -2102,7 +2519,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>170</v>
       </c>
@@ -2110,13 +2527,271 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B23" t="s">
         <v>155</v>
       </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>560</v>
+      </c>
+      <c r="B24" t="s">
+        <v>561</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B25" t="s">
+        <v>563</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>564</v>
+      </c>
+      <c r="B26" t="s">
+        <v>565</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>566</v>
+      </c>
+      <c r="B27" t="s">
+        <v>567</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>568</v>
+      </c>
+      <c r="B28" t="s">
+        <v>569</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>576</v>
+      </c>
+      <c r="B29" t="s">
+        <v>577</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>578</v>
+      </c>
+      <c r="B30" t="s">
+        <v>579</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>580</v>
+      </c>
+      <c r="B31" t="s">
+        <v>581</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>582</v>
+      </c>
+      <c r="B32" t="s">
+        <v>583</v>
+      </c>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>584</v>
+      </c>
+      <c r="B33" t="s">
+        <v>585</v>
+      </c>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>586</v>
+      </c>
+      <c r="B34" t="s">
+        <v>587</v>
+      </c>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>588</v>
+      </c>
+      <c r="B35" t="s">
+        <v>589</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36" t="s">
+        <v>591</v>
+      </c>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B37" t="s">
+        <v>593</v>
+      </c>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>594</v>
+      </c>
+      <c r="B38" t="s">
+        <v>595</v>
+      </c>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>602</v>
+      </c>
+      <c r="B40" t="s">
+        <v>603</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>604</v>
+      </c>
+      <c r="B41" t="s">
+        <v>605</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>606</v>
+      </c>
+      <c r="B42" t="s">
+        <v>607</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>608</v>
+      </c>
+      <c r="B43" t="s">
+        <v>609</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>610</v>
+      </c>
+      <c r="B44" t="s">
+        <v>611</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>612</v>
+      </c>
+      <c r="B45" t="s">
+        <v>613</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>614</v>
+      </c>
+      <c r="B46" t="s">
+        <v>615</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>616</v>
+      </c>
+      <c r="B47" t="s">
+        <v>617</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>618</v>
+      </c>
+      <c r="B48" t="s">
+        <v>619</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>620</v>
+      </c>
+      <c r="B49" t="s">
+        <v>621</v>
+      </c>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="E55" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2124,6 +2799,304 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079090A0-1312-4556-AE2E-C4E9A55F8C7D}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DC70C2-F2D4-4551-B06D-312C97F6B3A3}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE6DBF1-A1B4-44D6-BBC0-D4D1C4111D71}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2131,7 +3104,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2186,15 +3159,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F793DD5D-4F91-4D00-BCCA-B72FB30153CF}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2289,15 +3262,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E88B695-9D98-40F0-B486-7A861EDA19D2}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2345,7 +3318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE99D80A-78BA-42A0-812A-7811D418ACF4}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2353,7 +3326,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2393,159 +3366,6 @@
       </c>
       <c r="B5" t="s">
         <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D557586-1D33-4387-B919-8569B3B1FD1B}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74062C70-4E32-48FB-8DF9-2DABDBC5DB0D}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2554,16 +3374,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2475D2-9F43-4B7D-8DB1-CFDF846B5F99}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63EC075-A0F2-4FC2-B6C9-9B1B93843995}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2571,45 +3391,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>234</v>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>542</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>543</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>544</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>307</v>
+        <v>545</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>546</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>308</v>
+        <v>547</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>548</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>309</v>
+        <v>549</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>550</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2617,6 +3442,372 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D557586-1D33-4387-B919-8569B3B1FD1B}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74062C70-4E32-48FB-8DF9-2DABDBC5DB0D}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2475D2-9F43-4B7D-8DB1-CFDF846B5F99}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" t="s">
+        <v>599</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B9" t="s">
+        <v>601</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="F11" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9324AE2D-7645-40B0-9A71-491364069B8D}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7" t="s">
+        <v>553</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B8" t="s">
+        <v>533</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" t="s">
+        <v>555</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B11" t="s">
+        <v>559</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E51C5-7966-48C6-8505-9205E569550C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2624,7 +3815,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2658,15 +3849,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AD7E38-0FD5-445E-A154-AE66FC0F0BA5}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3388,15 +4579,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47EF05D-786E-45AD-A8F3-796212A99DC9}">
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3764,67 +4955,6 @@
       </c>
       <c r="B46" t="s">
         <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE34C92-0AC6-4ED0-83A1-8DD2E61A2B1D}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3833,14 +4963,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CC1D28-CE92-4738-BD74-9DD230FBA021}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE34C92-0AC6-4ED0-83A1-8DD2E61A2B1D}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3848,29 +4980,105 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>134</v>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>135</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>136</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B7" t="s">
+        <v>571</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B8" t="s">
+        <v>573</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B9" t="s">
+        <v>575</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B10" t="s">
+        <v>623</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3878,14 +5086,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CDC2DA-33F7-47AA-A5D9-0729BDEF995A}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CC1D28-CE92-4738-BD74-9DD230FBA021}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3896,83 +5102,27 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>124</v>
+      <c r="A2" t="s">
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>125</v>
+      <c r="A3" t="s">
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>126</v>
+      <c r="A4" t="s">
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3981,18 +5131,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CFD6A-64D7-4EEF-B53E-4932B50143D9}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CDC2DA-33F7-47AA-A5D9-0729BDEF995A}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A2:A13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -4000,50 +5150,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4052,18 +5234,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912D449F-C34C-4A2A-A907-79A9D95E7ADC}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CFD6A-64D7-4EEF-B53E-4932B50143D9}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -4071,26 +5253,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>296</v>
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4099,14 +5305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079090A0-1312-4556-AE2E-C4E9A55F8C7D}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912D449F-C34C-4A2A-A907-79A9D95E7ADC}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -4118,138 +5324,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
+        <v>297</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
+        <v>298</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4258,14 +5352,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DC70C2-F2D4-4551-B06D-312C97F6B3A3}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E712B423-0D25-46E4-B01F-CD8C439234C0}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -4276,59 +5370,163 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>258</v>
+      <c r="A2" t="s">
+        <v>492</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>259</v>
+      <c r="A3" t="s">
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>260</v>
+      <c r="A4" t="s">
+        <v>496</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>261</v>
+      <c r="A5" t="s">
+        <v>498</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>262</v>
+      <c r="A6" t="s">
+        <v>500</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>263</v>
+      <c r="A7" t="s">
+        <v>502</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>264</v>
+      <c r="A8" t="s">
+        <v>504</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>516</v>
+      </c>
+      <c r="B14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>522</v>
+      </c>
+      <c r="B17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>526</v>
+      </c>
+      <c r="B19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>530</v>
+      </c>
+      <c r="B21" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
